--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/43/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/43/FD_Curve.xlsx
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.35716</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6357.16</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.51508</v>
+        <v>7.83359</v>
       </c>
       <c r="C9" t="n">
-        <v>6515.08</v>
+        <v>7833.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247925</v>
       </c>
       <c r="B10" t="n">
-        <v>6.62286</v>
+        <v>8.27528</v>
       </c>
       <c r="C10" t="n">
-        <v>6622.86</v>
+        <v>8275.280000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.27885</v>
       </c>
       <c r="B11" t="n">
-        <v>6.66554</v>
+        <v>8.55527</v>
       </c>
       <c r="C11" t="n">
-        <v>6665.54</v>
+        <v>8555.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309775</v>
       </c>
       <c r="B12" t="n">
-        <v>6.69611</v>
+        <v>8.73502</v>
       </c>
       <c r="C12" t="n">
-        <v>6696.11</v>
+        <v>8735.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.3407</v>
       </c>
       <c r="B13" t="n">
-        <v>6.70964</v>
+        <v>8.891950000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>6709.64</v>
+        <v>8891.950000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371667</v>
+        <v>0.371626</v>
       </c>
       <c r="B14" t="n">
-        <v>6.72447</v>
+        <v>9.038860000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>6724.47</v>
+        <v>9038.860000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.402551</v>
       </c>
       <c r="B15" t="n">
-        <v>6.737</v>
+        <v>9.163770000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>6737</v>
+        <v>9163.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433517</v>
+        <v>0.433476</v>
       </c>
       <c r="B16" t="n">
-        <v>6.74688</v>
+        <v>9.286520000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>6746.88</v>
+        <v>9286.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464442</v>
+        <v>0.464401</v>
       </c>
       <c r="B17" t="n">
-        <v>6.755170000000001</v>
+        <v>9.398770000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>6755.17</v>
+        <v>9398.77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495326</v>
       </c>
       <c r="B18" t="n">
-        <v>6.763050000000001</v>
+        <v>9.503780000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>6763.05</v>
+        <v>9503.780000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.526251</v>
       </c>
       <c r="B19" t="n">
-        <v>6.77087</v>
+        <v>9.606670000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>6770.87</v>
+        <v>9606.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.557176</v>
       </c>
       <c r="B20" t="n">
-        <v>6.777850000000001</v>
+        <v>9.691600000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>6777.85</v>
+        <v>9691.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.588101</v>
       </c>
       <c r="B21" t="n">
-        <v>6.78396</v>
+        <v>9.780059999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>6783.96</v>
+        <v>9780.059999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619143</v>
       </c>
       <c r="B22" t="n">
-        <v>6.78974</v>
+        <v>9.859719999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>6789.74</v>
+        <v>9859.719999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650315</v>
       </c>
       <c r="B23" t="n">
-        <v>6.79515</v>
+        <v>9.936819999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>6795.15</v>
+        <v>9936.82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.681488</v>
       </c>
       <c r="B24" t="n">
-        <v>6.80021</v>
+        <v>10.0062</v>
       </c>
       <c r="C24" t="n">
-        <v>6800.21</v>
+        <v>10006.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.712665</v>
       </c>
       <c r="B25" t="n">
-        <v>6.80468</v>
+        <v>10.0731</v>
       </c>
       <c r="C25" t="n">
-        <v>6804.68</v>
+        <v>10073.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743879</v>
+        <v>0.743837</v>
       </c>
       <c r="B26" t="n">
-        <v>6.80891</v>
+        <v>10.1361</v>
       </c>
       <c r="C26" t="n">
-        <v>6808.91</v>
+        <v>10136.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775056</v>
+        <v>0.775015</v>
       </c>
       <c r="B27" t="n">
-        <v>6.81284</v>
+        <v>10.1949</v>
       </c>
       <c r="C27" t="n">
-        <v>6812.84</v>
+        <v>10194.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.806187</v>
       </c>
       <c r="B28" t="n">
-        <v>6.8163</v>
+        <v>10.2495</v>
       </c>
       <c r="C28" t="n">
-        <v>6816.3</v>
+        <v>10249.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.83736</v>
       </c>
       <c r="B29" t="n">
-        <v>6.81954</v>
+        <v>10.3006</v>
       </c>
       <c r="C29" t="n">
-        <v>6819.54</v>
+        <v>10300.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868537</v>
       </c>
       <c r="B30" t="n">
-        <v>6.82261</v>
+        <v>10.3481</v>
       </c>
       <c r="C30" t="n">
-        <v>6822.61</v>
+        <v>10348.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899709</v>
       </c>
       <c r="B31" t="n">
-        <v>6.825310000000001</v>
+        <v>10.3927</v>
       </c>
       <c r="C31" t="n">
-        <v>6825.31</v>
+        <v>10392.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.930882</v>
       </c>
       <c r="B32" t="n">
-        <v>6.82778</v>
+        <v>10.4341</v>
       </c>
       <c r="C32" t="n">
-        <v>6827.78</v>
+        <v>10434.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962059</v>
       </c>
       <c r="B33" t="n">
-        <v>6.83003</v>
+        <v>10.4721</v>
       </c>
       <c r="C33" t="n">
-        <v>6830.03</v>
+        <v>10472.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993231</v>
       </c>
       <c r="B34" t="n">
-        <v>6.832020000000001</v>
+        <v>10.5068</v>
       </c>
       <c r="C34" t="n">
-        <v>6832.02</v>
+        <v>10506.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02457</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>6.83382</v>
+        <v>10.5381</v>
       </c>
       <c r="C35" t="n">
-        <v>6833.82</v>
+        <v>10538.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05523</v>
       </c>
       <c r="B36" t="n">
-        <v>6.83539</v>
+        <v>10.5664</v>
       </c>
       <c r="C36" t="n">
-        <v>6835.39</v>
+        <v>10566.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.0862</v>
       </c>
       <c r="B37" t="n">
-        <v>6.83676</v>
+        <v>10.5919</v>
       </c>
       <c r="C37" t="n">
-        <v>6836.76</v>
+        <v>10591.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>6.83792</v>
+        <v>10.6143</v>
       </c>
       <c r="C38" t="n">
-        <v>6837.92</v>
+        <v>10614.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.14813</v>
       </c>
       <c r="B39" t="n">
-        <v>6.83891</v>
+        <v>10.6328</v>
       </c>
       <c r="C39" t="n">
-        <v>6838.91</v>
+        <v>10632.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.1791</v>
       </c>
       <c r="B40" t="n">
-        <v>6.8397</v>
+        <v>10.6485</v>
       </c>
       <c r="C40" t="n">
-        <v>6839.7</v>
+        <v>10648.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21286</v>
+        <v>1.21007</v>
       </c>
       <c r="B41" t="n">
-        <v>6.8403</v>
+        <v>10.6606</v>
       </c>
       <c r="C41" t="n">
-        <v>6840.3</v>
+        <v>10660.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24424</v>
+        <v>1.24104</v>
       </c>
       <c r="B42" t="n">
-        <v>6.84072</v>
+        <v>10.6686</v>
       </c>
       <c r="C42" t="n">
-        <v>6840.72</v>
+        <v>10668.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27562</v>
+        <v>1.272</v>
       </c>
       <c r="B43" t="n">
-        <v>6.84097</v>
+        <v>10.6732</v>
       </c>
       <c r="C43" t="n">
-        <v>6840.97</v>
+        <v>10673.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.307</v>
+        <v>1.30297</v>
       </c>
       <c r="B44" t="n">
-        <v>6.84105</v>
+        <v>10.6729</v>
       </c>
       <c r="C44" t="n">
-        <v>6841.05</v>
+        <v>10672.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33838</v>
+        <v>1.33394</v>
       </c>
       <c r="B45" t="n">
-        <v>6.84095</v>
+        <v>10.6681</v>
       </c>
       <c r="C45" t="n">
-        <v>6840.95</v>
+        <v>10668.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36976</v>
+        <v>1.36491</v>
       </c>
       <c r="B46" t="n">
-        <v>6.84066</v>
+        <v>10.6583</v>
       </c>
       <c r="C46" t="n">
-        <v>6840.66</v>
+        <v>10658.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40095</v>
+        <v>1.39588</v>
       </c>
       <c r="B47" t="n">
-        <v>6.84023</v>
+        <v>10.6435</v>
       </c>
       <c r="C47" t="n">
-        <v>6840.23</v>
+        <v>10643.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43192</v>
+        <v>1.42684</v>
       </c>
       <c r="B48" t="n">
-        <v>6.83961</v>
+        <v>10.6239</v>
       </c>
       <c r="C48" t="n">
-        <v>6839.61</v>
+        <v>10623.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46289</v>
+        <v>1.45781</v>
       </c>
       <c r="B49" t="n">
-        <v>6.83883</v>
+        <v>10.5992</v>
       </c>
       <c r="C49" t="n">
-        <v>6838.83</v>
+        <v>10599.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49385</v>
+        <v>1.48878</v>
       </c>
       <c r="B50" t="n">
-        <v>6.83792</v>
+        <v>10.5695</v>
       </c>
       <c r="C50" t="n">
-        <v>6837.92</v>
+        <v>10569.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52482</v>
+        <v>1.51974</v>
       </c>
       <c r="B51" t="n">
-        <v>6.83686</v>
+        <v>10.5355</v>
       </c>
       <c r="C51" t="n">
-        <v>6836.86</v>
+        <v>10535.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55579</v>
+        <v>1.55072</v>
       </c>
       <c r="B52" t="n">
-        <v>6.83563</v>
+        <v>10.4973</v>
       </c>
       <c r="C52" t="n">
-        <v>6835.63</v>
+        <v>10497.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58671</v>
+        <v>1.58168</v>
       </c>
       <c r="B53" t="n">
-        <v>6.83425</v>
+        <v>10.455</v>
       </c>
       <c r="C53" t="n">
-        <v>6834.25</v>
+        <v>10455</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61727</v>
+        <v>1.61265</v>
       </c>
       <c r="B54" t="n">
-        <v>6.83274</v>
+        <v>10.409</v>
       </c>
       <c r="C54" t="n">
-        <v>6832.74</v>
+        <v>10409</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64783</v>
+        <v>1.64362</v>
       </c>
       <c r="B55" t="n">
-        <v>6.831060000000001</v>
+        <v>10.3591</v>
       </c>
       <c r="C55" t="n">
-        <v>6831.06</v>
+        <v>10359.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67838</v>
+        <v>1.67458</v>
       </c>
       <c r="B56" t="n">
-        <v>6.829260000000001</v>
+        <v>10.3053</v>
       </c>
       <c r="C56" t="n">
-        <v>6829.26</v>
+        <v>10305.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70894</v>
+        <v>1.70555</v>
       </c>
       <c r="B57" t="n">
-        <v>6.8273</v>
+        <v>10.2476</v>
       </c>
       <c r="C57" t="n">
-        <v>6827.3</v>
+        <v>10247.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74029</v>
+        <v>1.73652</v>
       </c>
       <c r="B58" t="n">
-        <v>6.82515</v>
+        <v>10.1843</v>
       </c>
       <c r="C58" t="n">
-        <v>6825.15</v>
+        <v>10184.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77186</v>
+        <v>1.76749</v>
       </c>
       <c r="B59" t="n">
-        <v>6.82284</v>
+        <v>10.1151</v>
       </c>
       <c r="C59" t="n">
-        <v>6822.84</v>
+        <v>10115.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80328</v>
+        <v>1.79846</v>
       </c>
       <c r="B60" t="n">
-        <v>6.82034</v>
+        <v>10.0405</v>
       </c>
       <c r="C60" t="n">
-        <v>6820.34</v>
+        <v>10040.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83443</v>
+        <v>1.82911</v>
       </c>
       <c r="B61" t="n">
-        <v>6.81769</v>
+        <v>9.960129999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>6817.69</v>
+        <v>9960.129999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86557</v>
+        <v>1.85966</v>
       </c>
       <c r="B62" t="n">
-        <v>6.8149</v>
+        <v>9.874969999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>6814.9</v>
+        <v>9874.969999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89672</v>
+        <v>1.89104</v>
       </c>
       <c r="B63" t="n">
-        <v>6.81196</v>
+        <v>9.78162</v>
       </c>
       <c r="C63" t="n">
-        <v>6811.96</v>
+        <v>9781.620000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92787</v>
+        <v>1.92243</v>
       </c>
       <c r="B64" t="n">
-        <v>6.80884</v>
+        <v>9.6823</v>
       </c>
       <c r="C64" t="n">
-        <v>6808.84</v>
+        <v>9682.299999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95901</v>
+        <v>1.95357</v>
       </c>
       <c r="B65" t="n">
-        <v>6.80558</v>
+        <v>9.57723</v>
       </c>
       <c r="C65" t="n">
-        <v>6805.58</v>
+        <v>9577.23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99016</v>
+        <v>1.98472</v>
       </c>
       <c r="B66" t="n">
-        <v>6.80215</v>
+        <v>9.466389999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>6802.15</v>
+        <v>9466.389999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02099</v>
+        <v>2.01562</v>
       </c>
       <c r="B67" t="n">
-        <v>6.79846</v>
+        <v>9.351129999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>6798.46</v>
+        <v>9351.129999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05171</v>
+        <v>2.04677</v>
       </c>
       <c r="B68" t="n">
-        <v>6.79457</v>
+        <v>9.228790000000002</v>
       </c>
       <c r="C68" t="n">
-        <v>6794.57</v>
+        <v>9228.790000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08243</v>
+        <v>2.07766</v>
       </c>
       <c r="B69" t="n">
-        <v>6.790430000000001</v>
+        <v>9.102770000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>6790.43</v>
+        <v>9102.77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11315</v>
+        <v>2.10875</v>
       </c>
       <c r="B70" t="n">
-        <v>6.78611</v>
+        <v>8.96942</v>
       </c>
       <c r="C70" t="n">
-        <v>6786.11</v>
+        <v>8969.42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14387</v>
+        <v>2.1396</v>
       </c>
       <c r="B71" t="n">
-        <v>6.781569999999999</v>
+        <v>8.832850000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>6781.57</v>
+        <v>8832.85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17459</v>
+        <v>2.17089</v>
       </c>
       <c r="B72" t="n">
-        <v>6.77684</v>
+        <v>8.689530000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>6776.84</v>
+        <v>8689.530000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20531</v>
+        <v>2.2017</v>
       </c>
       <c r="B73" t="n">
-        <v>6.77194</v>
+        <v>8.54284</v>
       </c>
       <c r="C73" t="n">
-        <v>6771.94</v>
+        <v>8542.84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23661</v>
+        <v>2.23269</v>
       </c>
       <c r="B74" t="n">
-        <v>6.76682</v>
+        <v>8.39147</v>
       </c>
       <c r="C74" t="n">
-        <v>6766.82</v>
+        <v>8391.469999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26839</v>
+        <v>2.2639</v>
       </c>
       <c r="B75" t="n">
-        <v>6.761439999999999</v>
+        <v>8.237290000000002</v>
       </c>
       <c r="C75" t="n">
-        <v>6761.44</v>
+        <v>8237.290000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30017</v>
+        <v>2.29462</v>
       </c>
       <c r="B76" t="n">
-        <v>6.755850000000001</v>
+        <v>8.08113</v>
       </c>
       <c r="C76" t="n">
-        <v>6755.85</v>
+        <v>8081.13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33142</v>
+        <v>2.32578</v>
       </c>
       <c r="B77" t="n">
-        <v>6.75004</v>
+        <v>7.92121</v>
       </c>
       <c r="C77" t="n">
-        <v>6750.04</v>
+        <v>7921.21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36232</v>
+        <v>2.35671</v>
       </c>
       <c r="B78" t="n">
-        <v>6.74401</v>
+        <v>7.76166</v>
       </c>
       <c r="C78" t="n">
-        <v>6744.01</v>
+        <v>7761.66</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39321</v>
+        <v>2.38775</v>
       </c>
       <c r="B79" t="n">
-        <v>6.737880000000001</v>
+        <v>7.59865</v>
       </c>
       <c r="C79" t="n">
-        <v>6737.88</v>
+        <v>7598.65</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42411</v>
+        <v>2.41869</v>
       </c>
       <c r="B80" t="n">
-        <v>6.73155</v>
+        <v>7.4387</v>
       </c>
       <c r="C80" t="n">
-        <v>6731.55</v>
+        <v>7438.7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45411</v>
+        <v>2.44994</v>
       </c>
       <c r="B81" t="n">
-        <v>6.72519</v>
+        <v>7.27711</v>
       </c>
       <c r="C81" t="n">
-        <v>6725.19</v>
+        <v>7277.11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48504</v>
+        <v>2.48082</v>
       </c>
       <c r="B82" t="n">
-        <v>6.71834</v>
+        <v>7.12095</v>
       </c>
       <c r="C82" t="n">
-        <v>6718.34</v>
+        <v>7120.95</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51705</v>
+        <v>2.51108</v>
       </c>
       <c r="B83" t="n">
-        <v>6.71105</v>
+        <v>6.97006</v>
       </c>
       <c r="C83" t="n">
-        <v>6711.05</v>
+        <v>6970.06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54905</v>
+        <v>2.54192</v>
       </c>
       <c r="B84" t="n">
-        <v>6.70362</v>
+        <v>6.81951</v>
       </c>
       <c r="C84" t="n">
-        <v>6703.62</v>
+        <v>6819.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58104</v>
+        <v>2.57393</v>
       </c>
       <c r="B85" t="n">
-        <v>6.69599</v>
+        <v>6.66727</v>
       </c>
       <c r="C85" t="n">
-        <v>6695.99</v>
+        <v>6667.27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61305</v>
+        <v>2.60505</v>
       </c>
       <c r="B86" t="n">
-        <v>6.68813</v>
+        <v>6.52262</v>
       </c>
       <c r="C86" t="n">
-        <v>6688.13</v>
+        <v>6522.62</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64504</v>
+        <v>2.63577</v>
       </c>
       <c r="B87" t="n">
-        <v>6.67989</v>
+        <v>6.38456</v>
       </c>
       <c r="C87" t="n">
-        <v>6679.89</v>
+        <v>6384.56</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67705</v>
+        <v>2.66569</v>
       </c>
       <c r="B88" t="n">
-        <v>6.67142</v>
+        <v>6.25379</v>
       </c>
       <c r="C88" t="n">
-        <v>6671.42</v>
+        <v>6253.79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70904</v>
+        <v>2.69689</v>
       </c>
       <c r="B89" t="n">
-        <v>6.662770000000001</v>
+        <v>6.12219</v>
       </c>
       <c r="C89" t="n">
-        <v>6662.77</v>
+        <v>6122.19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74046</v>
+        <v>2.72892</v>
       </c>
       <c r="B90" t="n">
-        <v>6.65386</v>
+        <v>5.99218</v>
       </c>
       <c r="C90" t="n">
-        <v>6653.86</v>
+        <v>5992.18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77154</v>
+        <v>2.76021</v>
       </c>
       <c r="B91" t="n">
-        <v>6.64462</v>
+        <v>5.8703</v>
       </c>
       <c r="C91" t="n">
-        <v>6644.62</v>
+        <v>5870.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80263</v>
+        <v>2.79121</v>
       </c>
       <c r="B92" t="n">
-        <v>6.63512</v>
+        <v>5.75594</v>
       </c>
       <c r="C92" t="n">
-        <v>6635.12</v>
+        <v>5755.94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83372</v>
+        <v>2.82108</v>
       </c>
       <c r="B93" t="n">
-        <v>6.62534</v>
+        <v>5.649100000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>6625.34</v>
+        <v>5649.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8648</v>
+        <v>2.85235</v>
       </c>
       <c r="B94" t="n">
-        <v>6.615100000000001</v>
+        <v>5.54386</v>
       </c>
       <c r="C94" t="n">
-        <v>6615.1</v>
+        <v>5543.86</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89589</v>
+        <v>2.88435</v>
       </c>
       <c r="B95" t="n">
-        <v>6.60463</v>
+        <v>5.44119</v>
       </c>
       <c r="C95" t="n">
-        <v>6604.63</v>
+        <v>5441.19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92697</v>
+        <v>2.91635</v>
       </c>
       <c r="B96" t="n">
-        <v>6.59381</v>
+        <v>5.34483</v>
       </c>
       <c r="C96" t="n">
-        <v>6593.81</v>
+        <v>5344.83</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95806</v>
+        <v>2.94806</v>
       </c>
       <c r="B97" t="n">
-        <v>6.58261</v>
+        <v>5.255260000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>6582.61</v>
+        <v>5255.26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98914</v>
+        <v>2.97846</v>
       </c>
       <c r="B98" t="n">
-        <v>6.57084</v>
+        <v>5.17196</v>
       </c>
       <c r="C98" t="n">
-        <v>6570.84</v>
+        <v>5171.96</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.02023</v>
+        <v>3.00886</v>
       </c>
       <c r="B99" t="n">
-        <v>6.558560000000001</v>
+        <v>5.094189999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>6558.56</v>
+        <v>5094.19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.05132</v>
+        <v>3.03889</v>
       </c>
       <c r="B100" t="n">
-        <v>6.54561</v>
+        <v>5.02106</v>
       </c>
       <c r="C100" t="n">
-        <v>6545.61</v>
+        <v>5021.06</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0824</v>
+        <v>3.06826</v>
       </c>
       <c r="B101" t="n">
-        <v>6.53208</v>
+        <v>4.95095</v>
       </c>
       <c r="C101" t="n">
-        <v>6532.08</v>
+        <v>4950.95</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11348</v>
+        <v>3.10117</v>
       </c>
       <c r="B102" t="n">
-        <v>6.518</v>
+        <v>4.876729999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>6518</v>
+        <v>4876.73</v>
       </c>
     </row>
   </sheetData>
